--- a/biology/Zoologie/Cygnodraco_mawsoni/Cygnodraco_mawsoni.xlsx
+++ b/biology/Zoologie/Cygnodraco_mawsoni/Cygnodraco_mawsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cygnodraco mawsoni est une espèce de poissons de la famille des Bathydraconidae. C'est la seule espèce de son genre Cygnodraco (monotypique).
 On trouve probablement Cygnodraco mawsoni dans toutes les eaux qui bordent l'Antarctique.
